--- a/src/renderer/src/assets/xlsx/person.xlsx
+++ b/src/renderer/src/assets/xlsx/person.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\tinytools.desktop\src\renderer\src\assets\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Develop\TinyTools.Desktop\src\renderer\src\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CBC2B4-DA8D-4F99-916D-F02E9B2A8BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EACB63-853A-4BE2-A9B1-238C01A3EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D7DA9B8-8481-4CE0-8E0F-5B0D4A8CD943}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{7D7DA9B8-8481-4CE0-8E0F-5B0D4A8CD943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,12 +95,6 @@
     <t>董平</t>
   </si>
   <si>
-    <t>宋清</t>
-  </si>
-  <si>
-    <t>武大郎</t>
-  </si>
-  <si>
     <t>杨志</t>
   </si>
   <si>
@@ -116,15 +110,6 @@
     <t>穆弘</t>
   </si>
   <si>
-    <t>曹正</t>
-  </si>
-  <si>
-    <t>孙新</t>
-  </si>
-  <si>
-    <t>李忠</t>
-  </si>
-  <si>
     <t>萧让</t>
   </si>
   <si>
@@ -140,15 +125,6 @@
     <t>阮小五</t>
   </si>
   <si>
-    <t>张青</t>
-  </si>
-  <si>
-    <t>孙二娘</t>
-  </si>
-  <si>
-    <t>万二郎</t>
-  </si>
-  <si>
     <t>解珍</t>
   </si>
   <si>
@@ -167,40 +143,10 @@
     <t>孙立</t>
   </si>
   <si>
-    <t>颜良</t>
-  </si>
-  <si>
-    <t>时迁</t>
-  </si>
-  <si>
-    <t>刘山</t>
-  </si>
-  <si>
     <t>张清</t>
   </si>
   <si>
-    <t>张潮</t>
-  </si>
-  <si>
-    <t>孙菊</t>
-  </si>
-  <si>
-    <t>卢健</t>
-  </si>
-  <si>
-    <t>满宝</t>
-  </si>
-  <si>
-    <t>傅化</t>
-  </si>
-  <si>
     <t>邓飞</t>
-  </si>
-  <si>
-    <t>赵敬</t>
-  </si>
-  <si>
-    <t>邓茂</t>
   </si>
   <si>
     <t>男</t>
@@ -213,6 +159,78 @@
   <si>
     <t>（注：性别和学号为可选项）</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐宁</t>
+  </si>
+  <si>
+    <t>索超</t>
+  </si>
+  <si>
+    <t>戴宗</t>
+  </si>
+  <si>
+    <t>雷横</t>
+  </si>
+  <si>
+    <t>李俊</t>
+  </si>
+  <si>
+    <t>阮小七</t>
+  </si>
+  <si>
+    <t>杨雄</t>
+  </si>
+  <si>
+    <t>石秀</t>
+  </si>
+  <si>
+    <t>宣赞</t>
+  </si>
+  <si>
+    <t>郝思文</t>
+  </si>
+  <si>
+    <t>韩滔</t>
+  </si>
+  <si>
+    <t>彭玘</t>
+  </si>
+  <si>
+    <t>单廷珪</t>
+  </si>
+  <si>
+    <t>魏定国</t>
+  </si>
+  <si>
+    <t>裴宣</t>
+  </si>
+  <si>
+    <t>欧鹏</t>
+  </si>
+  <si>
+    <t>燕顺</t>
+  </si>
+  <si>
+    <t>杨林</t>
+  </si>
+  <si>
+    <t>凌振</t>
+  </si>
+  <si>
+    <t>蒋敬</t>
+  </si>
+  <si>
+    <t>吕方</t>
+  </si>
+  <si>
+    <t>郭盛</t>
+  </si>
+  <si>
+    <t>安道全</t>
+  </si>
+  <si>
+    <t>皇甫端</t>
   </si>
 </sst>
 </file>
@@ -244,16 +262,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333639"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF374151"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333639"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -606,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3DA32A-A4B6-482C-9AE8-58EDDF58234F}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,8 +647,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>20200001</v>
+        <v>20220001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,10 +667,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>20200002</v>
+        <v>20220002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -659,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>20200003</v>
+        <v>20220003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -670,10 +689,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C5">
-        <v>20200004</v>
+        <v>20220004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,10 +700,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>20200005</v>
+        <v>20220005</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -692,10 +711,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C7">
-        <v>20200006</v>
+        <v>20220006</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -703,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>20200007</v>
+        <v>20220007</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -714,10 +733,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>20200008</v>
+        <v>20220008</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -725,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>20200009</v>
+        <v>20220009</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -736,10 +755,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>20200010</v>
+        <v>20220010</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -747,10 +766,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>20200011</v>
+        <v>20220011</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -758,10 +777,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>20200012</v>
+        <v>20220012</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -769,10 +788,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>20200013</v>
+        <v>20220013</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -780,10 +799,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>20200014</v>
+        <v>20220014</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -791,432 +810,473 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>20200015</v>
+        <v>20220015</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>20200016</v>
+        <v>20220016</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>20200017</v>
+        <v>20220017</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>20200018</v>
+        <v>20220018</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C20">
-        <v>20200019</v>
+        <v>20220019</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>20200020</v>
+        <v>20220020</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>20200021</v>
+        <v>20220021</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C23">
-        <v>20200022</v>
+        <v>20220022</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>20200023</v>
+        <v>20220023</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>20200024</v>
+        <v>20220024</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>20200025</v>
+        <v>20220025</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>20200026</v>
+        <v>20220026</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>20200027</v>
+        <v>20220027</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C29">
-        <v>20200028</v>
+        <v>20220028</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <v>20200029</v>
+        <v>20220029</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <v>20200030</v>
+        <v>20220030</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>20200031</v>
+        <v>20220031</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C33">
-        <v>20200032</v>
+        <v>20220032</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>20200033</v>
+        <v>20220033</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>20200034</v>
+        <v>20220034</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>20200035</v>
+        <v>20220035</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>20200036</v>
+        <v>20220036</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C38">
-        <v>20200037</v>
+        <v>20220037</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C39">
-        <v>20200038</v>
+        <v>20220038</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>20200039</v>
+        <v>20220039</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C41">
-        <v>20200040</v>
+        <v>20220040</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C42">
-        <v>20200041</v>
+        <v>20220041</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C43">
-        <v>20200042</v>
+        <v>20220042</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C44">
-        <v>20200043</v>
+        <v>20220043</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C45">
-        <v>20200044</v>
+        <v>20220044</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>20200045</v>
+        <v>20220045</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C47">
-        <v>20200046</v>
+        <v>20220046</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>20200047</v>
+        <v>20220047</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C49">
-        <v>20200048</v>
+        <v>20220048</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C50">
-        <v>20200049</v>
+        <v>20220049</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C51">
-        <v>20200050</v>
+        <v>20220050</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <v>20200051</v>
+        <v>20220051</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>20200052</v>
+        <v>20220052</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C54">
-        <v>20200053</v>
+        <v>20220053</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>20220054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>20220055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>20220056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58">
+        <v>20220057</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
